--- a/Week 37/aswathy.xlsx
+++ b/Week 37/aswathy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\Week 37\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">                      13/9/2018</t>
   </si>
   <si>
-    <t>not chanding the status of stock transfer out after stock transfer in</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="18"/>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>holded</t>
+  </si>
+  <si>
+    <t>not chanding the status of stock transfer out after stock transfer in</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -431,9 +430,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -488,7 +485,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -616,7 +612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -798,9 +793,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -867,7 +860,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2782,7 +2774,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -2911,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -2925,7 +2917,7 @@
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
@@ -2964,17 +2956,17 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D26" s="4">
         <f>(5*1440)+(13*60)</f>
         <v>7980</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3059,7 +3051,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,10 +3061,10 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
         <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
